--- a/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
+++ b/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1078"/>
+  <dimension ref="A1:E1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20923,6 +20923,25 @@
         <v>263200000</v>
       </c>
     </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>2023-11-29T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
+++ b/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1079"/>
+  <dimension ref="A1:E1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20942,6 +20942,405 @@
         <v>263200000</v>
       </c>
     </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>2023-11-30T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>2023-12-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>2023-12-02T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>2023-12-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>2023-12-04T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1084" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>2023-12-05T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1085" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>2023-12-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1086" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>2023-12-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1087" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>2023-12-08T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1088" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>2023-12-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1089" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>2023-12-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1090" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>2023-12-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1091" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>2023-12-12T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1092" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>2023-12-13T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1093" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>2023-12-14T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1094" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>2023-12-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1095" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>2023-12-16T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1096" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>2023-12-17T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1097" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>2023-12-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1098" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>2023-12-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1099" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>2023-12-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1100" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
+++ b/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1100"/>
+  <dimension ref="A1:E1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21341,6 +21341,424 @@
         <v>263200000</v>
       </c>
     </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>2023-12-21T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1101" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>2023-12-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1102" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>2023-12-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>2023-12-24T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>2023-12-25T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>2023-12-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>2023-12-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1107" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>2023-12-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1108" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>2023-12-29T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1109" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>2023-12-30T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1110" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>2023-12-31T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1111" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>2024-01-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1112" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>2024-01-02T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1113" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>2024-01-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1114" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>2024-01-04T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1115" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>2024-01-05T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1116" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>2024-01-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1117" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>2024-01-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1118" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>2024-01-08T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1119" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>2024-01-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1120" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>2024-01-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1121" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>2024-01-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1122" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
+++ b/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1122"/>
+  <dimension ref="A1:E1161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21759,6 +21759,747 @@
         <v>263200000</v>
       </c>
     </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>2024-01-12T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1123" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>2024-01-13T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1124" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>2024-01-14T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1125" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>2024-01-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1126" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>2024-01-16T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1127" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>2024-01-17T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1128" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>2024-01-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1129" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>2024-01-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1130" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>2024-01-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1131" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>2024-01-21T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1132" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>2024-01-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1133" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>2024-01-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1134" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>2024-01-24T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1135" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>2024-01-25T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1136" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>2024-01-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1137" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>2024-01-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1138" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>2024-01-28T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1139" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>2024-01-29T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1140" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>2024-01-30T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1141" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>2024-01-31T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1142" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>2024-02-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1143" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>2024-02-02T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1144" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>2024-02-03T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1145" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>2024-02-04T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1146" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>2024-02-05T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1147" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>2024-02-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1148" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>2024-02-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1149" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>2024-02-08T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1150" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>2024-02-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1151" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>2024-02-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1152" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>2024-02-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1153" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>2024-02-12T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1154" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>2024-02-13T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1155" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>2024-02-14T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1156" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>2024-02-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1157" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>2024-02-16T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1158" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>2024-02-17T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1159" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>2024-02-18T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1160" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>2024-02-19T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1161" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
+++ b/XUnlocksCrawler/output/tu/chartData_LDO_lido-dao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1161"/>
+  <dimension ref="A1:E1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22500,6 +22500,158 @@
         <v>263200000</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>2024-02-20T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1162" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>2024-02-21T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1163" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>2024-02-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1164" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>2024-02-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1165" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>2024-02-24T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>2024-02-25T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1167" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1168" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>2024-02-27T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="B1169" t="n">
+        <v>353806241</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>60400000</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>263200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
